--- a/questions/Assignment6-ClientCommandTableForA7.xlsx
+++ b/questions/Assignment6-ClientCommandTableForA7.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\SimplicityStudio\v5_workspace\ecen5823-assignment6-AkankshaTripa\questions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC9F85-ACFB-4923-997A-39F4FCE3B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Client Command Table for A7</t>
   </si>
@@ -27,7 +36,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -54,7 +63,7 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
@@ -133,9 +142,6 @@
     <t>sl_bt_evt_gatt_procedure_completed_id</t>
   </si>
   <si>
-    <t>We get this event when it’s ok to call the next GATT command. It’s a good idea to check for returned error codes. This would be a great event to use to sequence your new state machine.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -171,34 +177,78 @@
     <t>sl_bt_evt_gatt_characteristic_id</t>
   </si>
   <si>
-    <t>A GATT characteristic in the remote GATT database was discovered</t>
-  </si>
-  <si>
     <t>sl_bt_evt_gatt_characteristic_value_id</t>
   </si>
   <si>
-    <t>If an indication or notification has been enabled for a characteristic, this event is triggered whenever an indication or notification is received from the remote GATT server.
+    <t>sl_bt_gatt_discover_primary_services_by_uuid()</t>
+  </si>
+  <si>
+    <t>Service is discovered by client</t>
+  </si>
+  <si>
+    <t>Connection open and Address Validation</t>
+  </si>
+  <si>
+    <t>If connection is closed start advertising again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If indication is enabled for characteristics then send confirmation to client </t>
+  </si>
+  <si>
+    <t>Service was discovered</t>
+  </si>
+  <si>
+    <t>Characteristics discovered</t>
+  </si>
+  <si>
+    <t>Expiration of soft timer</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A GATT characteristic in the remote GATT database was discovered </t>
+  </si>
+  <si>
+    <r>
+      <t>If an indication or notification has been enabled for a characteristic, this event is triggered whenever an indication or notification is received from the remote GATT server.
 Is the characteristic handle and att_opcode we expect? If yes: 
    sl_bt_gatt_send_characteristic_confirmation()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We get this event when it’s ok to call the next GATT command. It’s a good idea to check for returned error codes. This would be a great event to use to sequence your new state machine. : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sl_bt_gatt_discover_characteristics_by_uuid()  //Discover characteristic from remote GATT database sl_bt_gatt_set_characteristic_notification()  // enable indications</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="13"/>
@@ -211,7 +261,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -240,6 +290,30 @@
       <sz val="10"/>
       <color indexed="15"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -348,82 +422,76 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,29 +501,5975 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff2236ff"/>
-      <rgbColor rgb="ff4d8f72"/>
-      <rgbColor rgb="ff4d8f72"/>
-      <rgbColor rgb="ff2e74b5"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF2236FF"/>
+      <rgbColor rgb="FF4D8F72"/>
+      <rgbColor rgb="FF4D8F72"/>
+      <rgbColor rgb="FF2E74B5"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>995680</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1443990</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2837180" y="9438640"/>
+          <a:ext cx="2448560" cy="629920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Sl_bt_on_event()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904240</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1912620" y="9733280"/>
+          <a:ext cx="833120" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1788160</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>26432</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1841500" y="9296400"/>
+          <a:ext cx="1788160" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Sleeping</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1666240</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>112792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1250950</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3507740" y="10437892"/>
+          <a:ext cx="1584960" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Event</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>20628</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5702300" y="10668000"/>
+          <a:ext cx="8727440" cy="5678478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>Boot ID          </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>                       sl_bt_scanner_set_mode()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>sl_bt_scanner_set_timing()   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>                        sl_bt_connection_set_default_parameters()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>                        sl_bt_scanner_start()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>Scanner Scan Report ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>                         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>sl_bt_scanner_stop() </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>                         connection_handle = 1 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>                         sl_bt_connection_open(connection_handle)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Open ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	      Save connection handle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Service ID </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	      Save GATT HTM service handle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Char ID </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>                                  Save GATT HTM characteristic handle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Char value ID </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>                                  Convert and display temp, send Indication Acknowledge</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>59706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>507299</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25022</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Flowchart: Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16050172" y="12442206"/>
+          <a:ext cx="1645920" cy="1717040"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>98723</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>126111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>618358</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>105800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17287516" y="15136197"/>
+          <a:ext cx="1658256" cy="1731414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>347330</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>94368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>866964</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>74057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19813364" y="11250661"/>
+          <a:ext cx="1658256" cy="1731414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>384392</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>73393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>904027</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>53081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22127668" y="14733134"/>
+          <a:ext cx="1658256" cy="1731414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485291</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>87056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1004927</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23367188" y="11593694"/>
+          <a:ext cx="1658256" cy="1731414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1027275</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>310682</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>158775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18216068" y="11296081"/>
+          <a:ext cx="1560648" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Open Event ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1102461</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>904027</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21707116" y="11296081"/>
+          <a:ext cx="2078808" cy="646331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Gatt completed     Event ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>94519</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>52202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>702717</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>173015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24115036" y="13836081"/>
+          <a:ext cx="2885440" cy="646331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Gatt Complemented Event ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>727242</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>73573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>299120</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>121041</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20193276" y="15959521"/>
+          <a:ext cx="1849120" cy="923330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Gatt complemented Event Id</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>98723</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>52202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>618358</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>71189</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17287516" y="13836081"/>
+          <a:ext cx="1658256" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Close Event ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>433659</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>978651</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>112151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15348415" y="10810488"/>
+          <a:ext cx="2837187" cy="623248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>sl_bt_gatt_discovery_primary_services_by_uuid()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251123</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>73573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>260582</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>92560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17439916" y="15959521"/>
+          <a:ext cx="1148080" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>      Last</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>261984</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>112811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>369051</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>131799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16312156" y="13196001"/>
+          <a:ext cx="1245688" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>   First</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>736701</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>154878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123597</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>18987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21381945" y="10454268"/>
+          <a:ext cx="5117384" cy="715939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>sl_bt_gatt_discover_characteristics_by_uuid()</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>904027</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>73393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>356219</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>90452</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23841466" y="14461564"/>
+          <a:ext cx="5182680" cy="357790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>l_bt_gatt_set_characteristic_notification()</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>369051</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>13313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>408290</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>149437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17557844" y="12220641"/>
+          <a:ext cx="2316480" cy="661641"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>866965</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>84213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>434491</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21471620" y="12116368"/>
+          <a:ext cx="1844768" cy="205873"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>74899</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>168425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>999459</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>73393</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="22956796" y="13251615"/>
+          <a:ext cx="924560" cy="1481519"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>502426</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>384392</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>63238</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18829840" y="15379465"/>
+          <a:ext cx="3297828" cy="219376"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1074784</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>162750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355807</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>32537</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="17124956" y="14121802"/>
+          <a:ext cx="419644" cy="1271166"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1443990</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>387195</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>139390</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5284966" y="9732227"/>
+          <a:ext cx="30646741" cy="25090"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1688171</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>46464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>665975</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>30975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5529147" y="10345854"/>
+          <a:ext cx="8905487" cy="7821341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1750122</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>108415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>549879</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>26540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591098" y="10578171"/>
+          <a:ext cx="8727440" cy="9117881"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800"/>
+            <a:t>Boot ID          </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800"/>
+            <a:t>                       sl_bt_scanner_set_mode()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800"/>
+            <a:t>                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>sl_bt_scanner_set_timing()   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>                        sl_bt_connection_set_default_parameters()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>                        sl_bt_scanner_start()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800"/>
+            <a:t>Scanner Scan Report ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800"/>
+            <a:t>                         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>sl_bt_scanner_stop() </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>                         connection_handle = 1 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>                         sl_bt_connection_open(connection_handle)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Open ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>	           Save connection handle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Service ID </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>	      Save GATT HTM service handle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Char ID </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>                                  Save GATT HTM characteristic handle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Char value ID </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>                                  Convert and display temp, send Indication Acknowledge</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>882806</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>30976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>325244</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>154878</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14651465" y="10160000"/>
+          <a:ext cx="14341706" cy="6768171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>          </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>                                                              </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>82670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>499822</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>96051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Flowchart: Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14914756" y="11574621"/>
+          <a:ext cx="1645920" cy="1717040"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91246</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>50807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>603406</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>78562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16152100" y="14268612"/>
+          <a:ext cx="1658256" cy="1731414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>324899</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>83686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>837058</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>111441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18677948" y="10383076"/>
+          <a:ext cx="1658256" cy="1731414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>347008</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>158842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>859167</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>16231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20992252" y="13865549"/>
+          <a:ext cx="1658256" cy="1731414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>440431</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>952589</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>113742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22231772" y="10726109"/>
+          <a:ext cx="1658256" cy="1731414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1019798</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>129106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288251</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>157706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17080652" y="10428496"/>
+          <a:ext cx="1560648" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Open Event ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1072554</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>129106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>859167</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>93973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20571700" y="10428496"/>
+          <a:ext cx="2078808" cy="646331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Gatt completed     Event ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42181</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>113618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>635426</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>78486</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22979620" y="12968496"/>
+          <a:ext cx="2885440" cy="646331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Gatt Complemented Event ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704811</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>22302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>261736</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>93803</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19057860" y="15091936"/>
+          <a:ext cx="1849120" cy="923330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Gatt complemented Event Id</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91246</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>113618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>603405</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16152100" y="12968496"/>
+          <a:ext cx="1658256" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Close Event ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1099634</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>154877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>971174</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>116478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14868293" y="10113536"/>
+          <a:ext cx="2163735" cy="1154162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>       sl_bt_gatt_discovery_primary_services_by_uuid()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243646</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>22302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>245629</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>50902</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16304500" y="15091936"/>
+          <a:ext cx="1148080" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>      Last</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261984</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>155001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361574</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>13236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15176740" y="12328416"/>
+          <a:ext cx="1245688" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>   First</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>706794</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>154877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>56306</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>13112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20205940" y="10113536"/>
+          <a:ext cx="5080000" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>sl_bt_gatt_discover_characteristics_by_uuid()</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>859166</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>158842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665975</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>5534</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22650507" y="13865549"/>
+          <a:ext cx="5537297" cy="357790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>l_bt_gatt_set_characteristic_notification()</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361574</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>31471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>385859</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>11648</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Straight Arrow Connector 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16422428" y="11353056"/>
+          <a:ext cx="2316480" cy="661641"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>837058</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389631</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133071</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Arrow Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20336204" y="11248783"/>
+          <a:ext cx="1844768" cy="205873"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>30039</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>40250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>954599</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>158842</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Straight Arrow Connector 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="66" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="21821380" y="12384030"/>
+          <a:ext cx="924560" cy="1481519"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487473</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>347008</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>2354</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Arrow Connector 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17694424" y="14511880"/>
+          <a:ext cx="3297828" cy="219376"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1074784</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>58607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>348330</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>137212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Arrow Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15989540" y="13254217"/>
+          <a:ext cx="419644" cy="1271166"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>511098</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>139390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542074</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Straight Arrow Connector 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20010244" y="9757317"/>
+          <a:ext cx="30976" cy="371707"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30976</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154878</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4274634" cy="471860"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="TextBox 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19530122" y="8920976"/>
+          <a:ext cx="4274634" cy="471860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-IN" sz="3200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Event</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>309756</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>92927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1688170</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>77439</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4150732" y="10562683"/>
+          <a:ext cx="1378414" cy="154878"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>681464</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4088780" cy="412934"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="TextBox 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31641586" y="9106830"/>
+          <a:ext cx="4088780" cy="412934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-IN" sz="2800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Back to Sleep</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -657,7 +6671,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -676,7 +6690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -706,7 +6720,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -732,7 +6746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -758,7 +6772,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -784,7 +6798,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -810,7 +6824,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -836,7 +6850,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -862,7 +6876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -888,7 +6902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,7 +6928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,9 +6941,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -946,7 +6966,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -965,7 +6985,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -991,7 +7011,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +7037,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +7063,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1069,7 +7089,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,7 +7115,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1121,7 +7141,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,7 +7167,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +7193,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +7219,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,9 +7232,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1228,7 +7254,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1247,7 +7273,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1277,7 +7303,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +7329,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +7355,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +7381,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +7407,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1407,7 +7433,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1433,7 +7459,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1459,7 +7485,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1485,7 +7511,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1498,346 +7524,383 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.8516" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
+    <row r="1" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
     </row>
-    <row r="2" ht="12.05" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
-    <row r="3" ht="119.55" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" t="s" s="9">
+    <row r="3" spans="1:6" ht="119.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="5"/>
     </row>
-    <row r="4" ht="12.05" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s" s="6">
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s" s="9">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="13.75" customHeight="1">
-      <c r="A5" t="s" s="10">
+    <row r="5" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
     </row>
-    <row r="6" ht="26.75" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" t="s" s="11">
+    <row r="6" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" t="s" s="14">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s" s="15">
+      <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" t="s" s="17">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="12"/>
     </row>
-    <row r="8" ht="13.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" t="s" s="17">
+    <row r="8" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="15"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" t="s" s="17">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="16"/>
     </row>
-    <row r="10" ht="26.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" t="s" s="17">
+    <row r="10" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s" s="15">
+      <c r="F10" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" t="s" s="20">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" t="s" s="20">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" t="s" s="20">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" t="s" s="21">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="26" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
     </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="10">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
-    <row r="19" ht="78.75" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" t="s" s="20">
+    <row r="19" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" t="s" s="21">
+      <c r="C19" s="16"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="26" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="19"/>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="16"/>
     </row>
-    <row r="21" ht="39.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" t="s" s="20">
+    <row r="21" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" t="s" s="21">
+      <c r="C21" s="16"/>
+      <c r="D21" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F21" t="s" s="23">
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" t="s" s="20">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" t="s" s="21">
+      <c r="F23" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" t="s" s="20">
+    <row r="27" spans="1:6" ht="107" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" t="s" s="21">
-        <v>32</v>
+      <c r="C27" s="16"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27" t="s">
+        <v>42</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F27" s="26" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
-    <row r="27" ht="65.75" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" t="s" s="20">
-        <v>33</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" t="s" s="21">
-        <v>34</v>
-      </c>
-      <c r="F27" s="19"/>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+    <row r="35" spans="5:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E35" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/questions/Assignment6-ClientCommandTableForA7.xlsx
+++ b/questions/Assignment6-ClientCommandTableForA7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\SimplicityStudio\v5_workspace\ecen5823-assignment6-AkankshaTripa\questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\SimplicityStudio\v5_workspace\ecen5823-assignment7-AkankshaTripa\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC9F85-ACFB-4923-997A-39F4FCE3B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C74DC8E-04B6-4DFB-82B9-3606AFCEEE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Client Command Table for A7</t>
   </si>
@@ -97,9 +97,6 @@
     <t>This event is generated on stack boot up</t>
   </si>
   <si>
-    <t xml:space="preserve">You can also document in column D values that need to be saved in response to receiving BT stack events. </t>
-  </si>
-  <si>
     <t>sl_bt_scanner_set_mode()</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
   </si>
   <si>
     <t>sl_bt_scanner_start()</t>
-  </si>
-  <si>
-    <t>You should start and stop scanning just like you did with advertising for a Server.</t>
   </si>
   <si>
     <t>sl_bt_evt_connection_opened_id</t>
@@ -142,32 +136,6 @@
     <t>sl_bt_evt_gatt_procedure_completed_id</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Do not build your state machine into your  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="15"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>handle_ble_event()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> function! Instead build a new state machine for A7. </t>
-    </r>
-  </si>
-  <si>
     <t>sl_bt_evt_gatt_service_id</t>
   </si>
   <si>
@@ -183,25 +151,7 @@
     <t>sl_bt_gatt_discover_primary_services_by_uuid()</t>
   </si>
   <si>
-    <t>Service is discovered by client</t>
-  </si>
-  <si>
-    <t>Connection open and Address Validation</t>
-  </si>
-  <si>
     <t>If connection is closed start advertising again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If indication is enabled for characteristics then send confirmation to client </t>
-  </si>
-  <si>
-    <t>Service was discovered</t>
-  </si>
-  <si>
-    <t>Characteristics discovered</t>
-  </si>
-  <si>
-    <t>Expiration of soft timer</t>
   </si>
   <si>
     <t>X</t>
@@ -226,17 +176,104 @@
     </r>
   </si>
   <si>
+    <t>Handle_ble_event(event)</t>
+  </si>
+  <si>
+    <t>Set the scanning timing parameters on the specified PHYs. If the device is currently scanning for advertising devices on PHYs, new parameters will take
+  effect when scanning is restarted.</t>
+  </si>
+  <si>
+    <t>Sets the scan mode on the specified PHYs. If the device is currently scanning for advertising devices on PHYs, new parameters will take effect when scanning is restarted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set the default Bluetooth connection parameters. The values are valid for all subsequent connections initiated by this device. </t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">We get this event when it’s ok to call the next GATT command. It’s a good idea to check for returned error codes. This would be a great event to use to sequence your new state machine. : </t>
+      <t xml:space="preserve">You should start and stop scanning just like you did with advertising for a Server. </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>sl_bt_gatt_discover_characteristics_by_uuid()  //Discover characteristic from remote GATT database sl_bt_gatt_set_characteristic_notification()  // enable indications</t>
+      <t>This fnction Starts the GAP discovery procedure to scan for advertising devices on the specified scanning PHYs.</t>
+    </r>
+  </si>
+  <si>
+    <t>Service is discovered by client. This command allows us to search for primary services with a specified UUID in a remote GATT (Generic Attribute Profile) database. When a primary service with the specified UUID is discovered, a unique gatt_service event is generated for it.
+Once the search is complete, we receive a sl_bt_evt_gatt_procedure_completed event, which indicates whether the GATT procedure was successfully completed or if it failed due to an error</t>
+  </si>
+  <si>
+    <t>Expiration of soft timer, this Indicates that a soft timer has lapsed</t>
+  </si>
+  <si>
+    <t>Connection open and Address Validation.    sl_bt_scanner_stop() :  Stop scanning for advertising devices,    sl_bt_connection_open(): This command allows us to connect to an advertising device with a specified initiating PHY. The Bluetooth stack continuously scans for connectable advertising packets from the remote device until it receives one that matches the specified Bluetooth address. Once an advertising packet is received, the module sends a connection request packet to the target device to initiate a Bluetooth connection. The connection is opened in no-security mode, but the GATT client can encrypt the connection using an appropriate authentication method to read or write encrypted attributes on the GATT server. If the connection cannot be established, the stack will try to connect indefinitely, and the application can implement a timeout and call sl_bt_connection_close to cancel the connection request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We get this event when it’s ok to call the next GATT command. It’s a good idea to check for returned error codes. This would be a great event to use to sequence your new state machine. : </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Do not build your state machine into your  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>handle_ble_event()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> function! Instead build a new state machine for A7. sl_bt_gatt_discover_characteristics_by_uuid()  : Discover characteristic from remote GATT database,  sl_bt_gatt_set_characteristic_notification()  : enable indications</t>
+    </r>
+  </si>
+  <si>
+    <t>Service was discovered, After issuing either the sl_bt_gatt_discover_primary_services or sl_bt_gatt_discover_primary_services_by_uuid command, this event is generated to indicate that the GATT procedure was completed successfully or failed due to an error. The event provides information on the status of the procedure and the number of primary services discovered. If the procedure was successful, the event also includes the handles of the first and last services discovered, which can be used to perform further GATT operations on the discovered services.</t>
+  </si>
+  <si>
+    <t>Characteristics discovered, This event is generated to indicate that a GATT characteristic in the remote GATT database was discovered after issuing either the sl_bt_gatt_discover_characteristics or sl_bt_gatt_discover_characteristics_by_uuid command. The event provides information about the status of the discovery procedure, including the number of characteristics discovered and the handles of the first and last characteristics. Applications can use the handles to perform further GATT operations on the discovered characteristics.</t>
+  </si>
+  <si>
+    <t>If indication is enabled for characteristics then send confirmation to client. This event is generated to indicate that the value of one or more characteristics in the remote GATT server has been received. This event is typically triggered by the sl_bt_gatt_read_characteristic_value command, which reads the value of a characteristic. The event provides information about the status of the read operation, including the handle of the characteristic and the value of the characteristic. Applications can use this event to handle the received characteristic value.</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_NAME, "Client"
+DISPLAY_ROW_ASSIGNMENT, "A7"
+DISPLAY_ROW_CONNECTION, "Discovering"</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_TEMPVALUE," " 
+DISPLAY_ROW_CONNECTION, "Connected" 
+DISPLAY_ROW_BTADDR2,  Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DISPLAY_ROW_CONNECTION, "Discovering"</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_CONNECTION, "Handling Indications"   DISPLAY_ROW_TEMPVALUE, temperature</t>
+  </si>
+  <si>
+    <r>
+      <t>You can also document in column D values that need to be saved in response to receiving BT stack events.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> This event is generated to indicate that the device has started and the radio is ready. The event provides information about the firmware build number and other software and hardware identification codes, which can be used for debugging and troubleshooting purposes. Applications can use this event to confirm that the device has started up successfully and to retrieve relevant identification codes if needed.</t>
     </r>
   </si>
 </sst>
@@ -244,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -312,6 +349,36 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -424,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -462,7 +529,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -473,10 +539,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,11 +556,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1374,334 +1457,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>59706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>507299</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>25022</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Flowchart: Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16050172" y="12442206"/>
-          <a:ext cx="1645920" cy="1717040"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-IN"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>98723</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>126111</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>618358</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>105800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17287516" y="15136197"/>
-          <a:ext cx="1658256" cy="1731414"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>347330</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>94368</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>866964</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>74057</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19813364" y="11250661"/>
-          <a:ext cx="1658256" cy="1731414"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>384392</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>73393</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>904027</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>53081</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22127668" y="14733134"/>
-          <a:ext cx="1658256" cy="1731414"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>485291</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>87056</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1004927</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>66745</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="23367188" y="11593694"/>
-          <a:ext cx="1658256" cy="1731414"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1027275</xdr:colOff>
       <xdr:row>44</xdr:row>
@@ -1834,10 +1589,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>Open Event ID</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1853,8 +1605,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>904027</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>85429</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>154880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1869,8 +1621,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21707116" y="11296081"/>
-          <a:ext cx="2078808" cy="646331"/>
+          <a:off x="22148175" y="12759153"/>
+          <a:ext cx="2079503" cy="357790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1977,10 +1729,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>Gatt completed     Event ID</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1988,23 +1737,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>94519</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>52202</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>727242</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>73573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>702717</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>173015</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>299120</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>88665</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 15">
+        <xdr:cNvPr id="20" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2012,8 +1761,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24115036" y="13836081"/>
-          <a:ext cx="2885440" cy="646331"/>
+          <a:off x="20633988" y="17319367"/>
+          <a:ext cx="1849815" cy="357790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2120,153 +1869,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>Gatt Complemented Event ID</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>727242</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>73573</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>299120</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>121041</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20193276" y="15959521"/>
-          <a:ext cx="1849120" cy="923330"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>Gatt complemented Event Id</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2406,10 +2009,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>Close Event ID</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2425,8 +2025,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>978651</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>112151</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>15092</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2441,8 +2041,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15348415" y="10810488"/>
-          <a:ext cx="2837187" cy="623248"/>
+          <a:off x="15784532" y="12448016"/>
+          <a:ext cx="2822929" cy="357790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2549,10 +2149,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>sl_bt_gatt_discovery_primary_services_by_uuid()</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2692,10 +2289,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>      Last</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2978,10 +2572,6 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>sl_bt_gatt_discover_characteristics_by_uuid()</a:t>
-          </a:r>
           <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
@@ -3122,287 +2712,10 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>s</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>l_bt_gatt_set_characteristic_notification()</a:t>
-          </a:r>
           <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>369051</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>13313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>408290</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>149437</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="17557844" y="12220641"/>
-          <a:ext cx="2316480" cy="661641"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>866965</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>84213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>434491</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114913</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21471620" y="12116368"/>
-          <a:ext cx="1844768" cy="205873"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>74899</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>168425</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>999459</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>73393</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="15" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="22956796" y="13251615"/>
-          <a:ext cx="924560" cy="1481519"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>502426</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>19034</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>384392</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>63238</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="18829840" y="15379465"/>
-          <a:ext cx="3297828" cy="219376"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1074784</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>162750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>355807</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>32537</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="17124956" y="14121802"/>
-          <a:ext cx="419644" cy="1271166"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3574,8 +2887,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>549879</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>26540</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>151346</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3590,8 +2903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5591098" y="10578171"/>
-          <a:ext cx="8727440" cy="9117881"/>
+          <a:off x="5589657" y="18744927"/>
+          <a:ext cx="10591559" cy="9383338"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3804,7 +3117,22 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1800"/>
-            <a:t>	      Save GATT HTM service handle</a:t>
+            <a:t>	           Save GATT HTM service handle(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>evt-&gt;data.evt_gatt_service.service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3822,8 +3150,20 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1800"/>
-            <a:t>                                  Save GATT HTM characteristic handle</a:t>
+            <a:t>                         Save GATT HTM characteristic handle(</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>evt-&gt;data.evt_gatt_characteristic.characteristic)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1800"/>
@@ -3863,601 +3203,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>882806</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>30976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>325244</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>154878</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rectangle 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14651465" y="10160000"/>
-          <a:ext cx="14341706" cy="6768171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="none"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>          </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>                                                              </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>82670</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>499822</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>96051</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Flowchart: Connector 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14914756" y="11574621"/>
-          <a:ext cx="1645920" cy="1717040"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>   </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91246</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>50807</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>603406</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>78562</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Picture 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16152100" y="14268612"/>
-          <a:ext cx="1658256" cy="1731414"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>324899</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>83686</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>837058</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>111441</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18677948" y="10383076"/>
-          <a:ext cx="1658256" cy="1731414"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>347008</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>158842</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>859167</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>16231</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20992252" y="13865549"/>
-          <a:ext cx="1658256" cy="1731414"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>440431</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85987</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>952589</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>113742</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22231772" y="10726109"/>
-          <a:ext cx="1658256" cy="1731414"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -4594,10 +3339,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>Open Event ID</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4613,8 +3355,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>859167</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>93973</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144197</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4629,8 +3371,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20571700" y="10428496"/>
-          <a:ext cx="2078808" cy="646331"/>
+          <a:off x="20979300" y="12063074"/>
+          <a:ext cx="2064550" cy="357790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4737,10 +3479,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>Gatt completed     Event ID</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4756,8 +3495,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>635426</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>78486</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>128709</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4772,8 +3511,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22979620" y="12968496"/>
-          <a:ext cx="2885440" cy="646331"/>
+          <a:off x="23365832" y="14617824"/>
+          <a:ext cx="2871181" cy="357790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4880,10 +3619,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>Gatt Complemented Event ID</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4899,8 +3635,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>261736</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>93803</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>37394</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4915,8 +3651,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19057860" y="15091936"/>
-          <a:ext cx="1849120" cy="923330"/>
+          <a:off x="19472589" y="16754048"/>
+          <a:ext cx="1834861" cy="357790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5023,10 +3759,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>Gatt complemented Event Id</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5166,10 +3899,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>Close Event ID</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5185,8 +3915,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>971174</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>116478</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>169969</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5201,8 +3931,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14868293" y="10113536"/>
-          <a:ext cx="2163735" cy="1154162"/>
+          <a:off x="15311539" y="11746147"/>
+          <a:ext cx="2149476" cy="357790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5309,10 +4039,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>       sl_bt_gatt_discovery_primary_services_by_uuid()</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5452,10 +4179,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>      Last</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5471,8 +4195,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>361574</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>13236</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>170093</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5487,8 +4211,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15176740" y="12328416"/>
-          <a:ext cx="1245688" cy="369332"/>
+          <a:off x="15612857" y="13973811"/>
+          <a:ext cx="1238558" cy="357790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5595,10 +4319,7 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>   First</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5614,8 +4335,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>56306</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>13112</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>169969</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5630,8 +4351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20205940" y="10113536"/>
-          <a:ext cx="5080000" cy="369332"/>
+          <a:off x="20613540" y="11746147"/>
+          <a:ext cx="5044353" cy="357790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5738,10 +4459,6 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>sl_bt_gatt_discover_characteristics_by_uuid()</a:t>
-          </a:r>
           <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
@@ -5882,287 +4599,10 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-IN"/>
-            <a:t>s</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>l_bt_gatt_set_characteristic_notification()</a:t>
-          </a:r>
           <a:endParaRPr lang="en-IN"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361574</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>31471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>385859</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>11648</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="Straight Arrow Connector 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16422428" y="11353056"/>
-          <a:ext cx="2316480" cy="661641"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>837058</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>97563</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>389631</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>133071</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="Straight Arrow Connector 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="65" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20336204" y="11248783"/>
-          <a:ext cx="1844768" cy="205873"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>30039</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>40250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>954599</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>158842</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="Straight Arrow Connector 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="66" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="21821380" y="12384030"/>
-          <a:ext cx="924560" cy="1481519"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>487473</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>123709</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>347008</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>2354</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="Straight Arrow Connector 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="17694424" y="14511880"/>
-          <a:ext cx="3297828" cy="219376"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1074784</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>58607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>348330</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>137212</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="Straight Arrow Connector 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="15989540" y="13254217"/>
-          <a:ext cx="419644" cy="1271166"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -6459,6 +4899,3273 @@
               <a:sym typeface="Helvetica Neue"/>
             </a:rPr>
             <a:t>Back to Sleep</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>50397</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3467302" cy="162224"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59B376DD-B1B4-A192-B51F-9E8A846B220A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29653492" y="12498413"/>
+          <a:ext cx="3467302" cy="162224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Discovery_State_Machine(event)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>145142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Rectangle 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3C27F8-F018-2AC2-F9BF-4D84A7228363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15875000" y="11883571"/>
+          <a:ext cx="19249571" cy="11339286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1010920</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>141812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Flowchart: Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3C6C8A-A24E-AB10-8012-06813B27DC7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15875000" y="13428915"/>
+          <a:ext cx="1645920" cy="1717040"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>602344</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>139049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>74319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EBE23E-30A5-000A-E74E-FB81DBC830A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17112344" y="16122906"/>
+          <a:ext cx="1658256" cy="1731414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>842192</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>145142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214448</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>80414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B052F02-499A-035B-CA59-485F11561D8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19638192" y="11883571"/>
+          <a:ext cx="1658256" cy="1731414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>870496</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>62557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242752</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>161114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06A21F2-5A58-909A-CF27-A87E6EC2075E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21952496" y="15719843"/>
+          <a:ext cx="1658256" cy="1731414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>916216</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>154290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>288472</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>89561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D608D92-9454-05B8-6EC3-90B920B6AF9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23141216" y="12545861"/>
+          <a:ext cx="1658256" cy="1731414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>387896</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>54504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>805544</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFC7BAA-2C57-E5A3-3AC4-DE700F6BCA6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18040896" y="12282790"/>
+          <a:ext cx="1560648" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Open Event ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>449944</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>54504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242752</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2B4654-6F36-19F6-7E60-49B09818C4B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21531944" y="12282790"/>
+          <a:ext cx="2078808" cy="646331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Gatt completed     Event ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571864</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>145219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28304</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>138407</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C815548-2760-04BA-B342-0F0F49A37BB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23939864" y="14822790"/>
+          <a:ext cx="2885440" cy="646331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Gatt Complemented Event ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>79104</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>145944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>785224</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>89560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33EE54A-9F38-040D-314A-A4FF126D73C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20018104" y="16946230"/>
+          <a:ext cx="1849120" cy="923330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Gatt complemented Event Id</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>602344</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>145219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>24693</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD677887-57C6-E929-9E38-4D22FA19E484}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17112344" y="14822790"/>
+          <a:ext cx="1658256" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Close Event ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236584</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339272</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>73872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA46A87-2B10-BE11-5E0A-45DF5BFB2598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16746584" y="11967830"/>
+          <a:ext cx="1245688" cy="1477328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>sl_bt_gatt_discovery_primary_services_by_uuid()</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>754744</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>145944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>759824</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>25419</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE1ABDD-F2C1-F5CC-6EB7-7AFBC7F5E515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17264744" y="16946230"/>
+          <a:ext cx="1148080" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>      Last</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>769984</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>158281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>872672</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>37756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121B89D2-5B2C-A87E-9FC3-842B0C020A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16136984" y="14182710"/>
+          <a:ext cx="1245688" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>   First</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>84184</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>592184</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>108876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66CC59E6-0FDE-8C29-E32B-04744D8A0E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21166184" y="11967830"/>
+          <a:ext cx="5080000" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>sl_bt_gatt_discover_characteristics_by_uuid()</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242752</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>62557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>475344</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>55745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88678529-1BAA-C244-EDD6-400FDF76FFB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23610752" y="15719843"/>
+          <a:ext cx="3661592" cy="646331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>l_bt_gatt_set_characteristic_notification())</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>872672</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>162636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>903152</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>7848</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="Straight Arrow Connector 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1746BB3D-F680-419D-7B13-44CA10BFE076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17382672" y="13207350"/>
+          <a:ext cx="2316480" cy="661641"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214448</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>31135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>916216</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>73722</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Straight Arrow Connector 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{061990CE-0F9B-77E8-62FF-14A221671479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="83" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21296448" y="12749278"/>
+          <a:ext cx="1844768" cy="205873"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>556624</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>50610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>338184</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>62557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="Straight Arrow Connector 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D02AE8C-3C87-B223-8420-FF0453541D65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="86" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="22781624" y="14238324"/>
+          <a:ext cx="924560" cy="1481519"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1001668</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>55745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>870496</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>111836</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Straight Arrow Connector 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763B7E35-498D-1B60-1695-9811094D8D50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18654668" y="16366174"/>
+          <a:ext cx="3297828" cy="219376"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>439784</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>104368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>859428</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>69248</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="Straight Arrow Connector 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0109D9D3-5A60-C01A-BBED-3433A8662F69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16949784" y="15108511"/>
+          <a:ext cx="419644" cy="1271166"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1010920</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>107641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>394064</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>87161</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Straight Arrow Connector 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E9EB7C-95AC-93B1-7EDA-5E3C4C36AA46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17520920" y="13968784"/>
+          <a:ext cx="2812144" cy="142806"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1010920</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>158281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1018904</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>139049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Straight Arrow Connector 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC36303A-A109-E4E9-36AD-807DBE3BC562}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="17520920" y="14182710"/>
+          <a:ext cx="4579984" cy="1940196"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1104176</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>15758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>50610</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="Straight Arrow Connector 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607BF441-ECED-7B45-3763-E61C75EAE67C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17614176" y="14040187"/>
+          <a:ext cx="5799544" cy="198137"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>528320</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>100729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>225336</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>143489</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E29D98-C227-1E9E-A937-3A8B4F1402E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21401102">
+          <a:off x="20467320" y="13635300"/>
+          <a:ext cx="1983016" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Close Event ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>678544</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>7848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38464</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>50609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E1CB440-3A67-AB3B-C22E-3C05B26D65FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18331544" y="13868991"/>
+          <a:ext cx="1645920" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Close Event ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>903152</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>63213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214448</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>105973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9245F0-DE67-F671-FB32-E1CE0CC725B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19699152" y="14904070"/>
+          <a:ext cx="1597296" cy="369332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN"/>
+            <a:t>Close Event ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>748749</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>36288</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4149821" cy="294953"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="TextBox 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2D5B46-7374-74DE-2DE4-DB122FAC2F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30974749" y="12591145"/>
+          <a:ext cx="4149821" cy="294953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-IN" sz="2000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Discovery_State_Machine() </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>494709</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>59070</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2975640" cy="235962"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="TextBox 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{545107DE-BE37-47F5-0031-79A49C442A5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="494709" y="22092093"/>
+          <a:ext cx="2975640" cy="235962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-IN" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Design Credits: Lecture Slides</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>878662</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>494709</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="162224"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="TextBox 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70F163B-4D6E-6E5B-B907-850217F71061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17654476" y="834360"/>
+          <a:ext cx="65" cy="162224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1114942</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>701454</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2348023" cy="486672"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="TextBox 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33CF671-F61F-2D34-4A62-38E222EC58C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16746279" y="1041105"/>
+          <a:ext cx="2348023" cy="486672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Command Table Credits: The function details has been taken from inbuilt header files and lecture slides</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>775291</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>140290</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1306918" cy="280581"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="TextBox 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E98AFA-FBA0-200C-C014-6CC644F84C98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22129012" y="18267325"/>
+          <a:ext cx="1306918" cy="280581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-IN" sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Event</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7546,17 +9253,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="55.90625" style="1" customWidth="1"/>
     <col min="6" max="6" width="44.81640625" style="1" customWidth="1"/>
@@ -7566,13 +9273,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -7626,49 +9333,57 @@
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>13</v>
+      <c r="F6" s="27" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="29" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="62.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="21" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -7676,221 +9391,232 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>18</v>
+      <c r="F10" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="118" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="17" t="s">
-        <v>19</v>
+      <c r="B12" s="16" t="s">
+        <v>17</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="26" t="s">
-        <v>40</v>
+      <c r="C12" s="21" t="s">
+        <v>48</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>32</v>
+      <c r="D12" s="21" t="s">
+        <v>31</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>33</v>
+      <c r="E12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="17" t="s">
-        <v>20</v>
+      <c r="B14" s="16" t="s">
+        <v>18</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="26" t="s">
-        <v>40</v>
+      <c r="C14" s="21" t="s">
+        <v>49</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>17</v>
+      <c r="D14" s="21" t="s">
+        <v>31</v>
       </c>
-      <c r="F14" s="26" t="s">
-        <v>35</v>
+      <c r="E14" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="17" t="s">
-        <v>21</v>
+      <c r="B16" s="16" t="s">
+        <v>19</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="18" t="s">
-        <v>22</v>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="17" t="s">
+        <v>20</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>39</v>
+      <c r="F16" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="17" t="s">
-        <v>24</v>
+      <c r="B19" s="16" t="s">
+        <v>22</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="18" t="s">
-        <v>25</v>
+      <c r="C19" s="15"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22" t="s">
+        <v>23</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>34</v>
+      <c r="F19" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="16"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="17" t="s">
-        <v>26</v>
+      <c r="B21" s="16" t="s">
+        <v>24</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="26" t="s">
-        <v>40</v>
+      <c r="C21" s="15"/>
+      <c r="D21" s="21" t="s">
+        <v>31</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="31" t="s">
         <v>43</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="107.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="17" t="s">
-        <v>28</v>
+      <c r="B23" s="16" t="s">
+        <v>25</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="18" t="s">
-        <v>29</v>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="17" t="s">
+        <v>26</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>37</v>
+      <c r="F23" s="21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="17" t="s">
-        <v>30</v>
+      <c r="B25" s="16" t="s">
+        <v>27</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="27" t="s">
-        <v>41</v>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="22" t="s">
+        <v>32</v>
       </c>
-      <c r="F25" s="26" t="s">
-        <v>38</v>
+      <c r="F25" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" ht="107" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="17" t="s">
-        <v>31</v>
+      <c r="B27" s="32" t="s">
+        <v>28</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27" t="s">
-        <v>42</v>
+      <c r="C27" s="21" t="s">
+        <v>50</v>
       </c>
-      <c r="F27" s="26" t="s">
-        <v>36</v>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
-    <row r="35" spans="5:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E35" s="21"/>
+    <row r="35" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E35" s="19"/>
+    </row>
+    <row r="39" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="26" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/questions/Assignment6-ClientCommandTableForA7.xlsx
+++ b/questions/Assignment6-ClientCommandTableForA7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\SimplicityStudio\v5_workspace\ecen5823-assignment7-AkankshaTripa\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C74DC8E-04B6-4DFB-82B9-3606AFCEEE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E67B42C-F4EE-406D-B36E-3DD506D3CC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,11 +246,6 @@
     <t>If indication is enabled for characteristics then send confirmation to client. This event is generated to indicate that the value of one or more characteristics in the remote GATT server has been received. This event is typically triggered by the sl_bt_gatt_read_characteristic_value command, which reads the value of a characteristic. The event provides information about the status of the read operation, including the handle of the characteristic and the value of the characteristic. Applications can use this event to handle the received characteristic value.</t>
   </si>
   <si>
-    <t>DISPLAY_ROW_NAME, "Client"
-DISPLAY_ROW_ASSIGNMENT, "A7"
-DISPLAY_ROW_CONNECTION, "Discovering"</t>
-  </si>
-  <si>
     <t>DISPLAY_ROW_TEMPVALUE," " 
 DISPLAY_ROW_CONNECTION, "Connected" 
 DISPLAY_ROW_BTADDR2,  Address</t>
@@ -275,6 +270,11 @@
       </rPr>
       <t xml:space="preserve"> This event is generated to indicate that the device has started and the radio is ready. The event provides information about the firmware build number and other software and hardware identification codes, which can be used for debugging and troubleshooting purposes. Applications can use this event to confirm that the device has started up successfully and to retrieve relevant identification codes if needed.</t>
     </r>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_NAME, "Client"
+DISPLAY_ROW_ASSIGNMENT, "A7"
+DISPLAY_ROW_CONNECTION, "Advertising"</t>
   </si>
 </sst>
 </file>
@@ -547,15 +547,6 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -575,6 +566,15 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2887,8 +2887,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>549879</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>151346</xdr:rowOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>129908</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2904,7 +2904,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5589657" y="18744927"/>
-          <a:ext cx="10591559" cy="9383338"/>
+          <a:ext cx="10591559" cy="8852423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3081,11 +3081,8 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1800"/>
-            <a:t>                         sl_bt_connection_open(connection_handle)</a:t>
+            <a:t>                         sl_bt_connection_open(connection_handl</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1800"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1800"/>
@@ -9255,8 +9252,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9273,13 +9270,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -9338,15 +9335,15 @@
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>47</v>
+      <c r="C6" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>51</v>
+      <c r="F6" s="24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9357,7 +9354,7 @@
       <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9369,7 +9366,7 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9393,7 +9390,7 @@
       <c r="E10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="24" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9410,7 +9407,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>31</v>
@@ -9436,12 +9433,12 @@
         <v>18</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="27" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="21" t="s">
@@ -9522,7 +9519,7 @@
       <c r="E21" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="28" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9580,11 +9577,11 @@
     </row>
     <row r="27" spans="1:6" ht="107" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="22" t="s">
@@ -9614,7 +9611,7 @@
       <c r="E35" s="19"/>
     </row>
     <row r="39" spans="4:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="23" t="s">
         <v>34</v>
       </c>
     </row>
